--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F516F2-69C2-4524-A3C6-BD5C408F7EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE3058-33C8-43E7-810B-5B3171AA6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -739,6 +739,51 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child_birthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿時間</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1が衣、２が食、３が住</t>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1が悩み、２が返信</t>
+    <rPh sb="2" eb="3">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1558,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2057,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2270,16 +2315,22 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sum int </v>
+        <v>sum int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2288,16 +2339,22 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>child_birthday varchar ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2306,7 +2363,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">child_name varchar </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2577,7 +2634,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2586,7 +2643,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -2726,7 +2783,6 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L15" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id int ,</v>
@@ -2750,7 +2806,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>channnel_id int ,</v>
@@ -2798,7 +2856,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>post_number int ,</v>
@@ -2827,16 +2887,22 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>post_content varchar (500)</v>
+        <v>post_content varchar (500),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3037,7 +3103,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4413,7 +4479,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4422,6 +4488,7 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -4561,7 +4628,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>book_channel_id int ,</v>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE3058-33C8-43E7-810B-5B3171AA6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C744317-D77E-4E11-AF22-C713F0E1BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
-    <sheet name="consul" sheetId="4" r:id="rId3"/>
-    <sheet name="record" sheetId="5" r:id="rId4"/>
-    <sheet name="record_time" sheetId="6" r:id="rId5"/>
-    <sheet name="record_meal" sheetId="7" r:id="rId6"/>
-    <sheet name="book" sheetId="11" r:id="rId7"/>
-    <sheet name="record_sleep" sheetId="8" r:id="rId8"/>
-    <sheet name="record_excretion" sheetId="10" r:id="rId9"/>
-    <sheet name="game" sheetId="9" r:id="rId10"/>
+    <sheet name="consuls" sheetId="4" r:id="rId3"/>
+    <sheet name="records" sheetId="5" r:id="rId4"/>
+    <sheet name="record_times" sheetId="6" r:id="rId5"/>
+    <sheet name="record_meals" sheetId="7" r:id="rId6"/>
+    <sheet name="record_sleeps" sheetId="8" r:id="rId7"/>
+    <sheet name="record_excretions" sheetId="10" r:id="rId8"/>
+    <sheet name="books" sheetId="11" r:id="rId9"/>
+    <sheet name="games" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="137">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -378,10 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>consul</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記録書</t>
     <rPh sb="0" eb="3">
       <t>キロクショ</t>
@@ -389,18 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>record</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>game</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひろし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,10 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>consul_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャンネルID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,10 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>record_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>meal_time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -545,18 +521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>record_meal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>record_excretion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>record_sleep</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>excretion_time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,10 +542,6 @@
   </si>
   <si>
     <t>meal_comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recod_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -612,10 +572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>game_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>quiz</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -648,26 +604,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>book_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブックチャンネルID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>book_channel_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -785,6 +726,157 @@
     <rPh sb="7" eb="9">
       <t>ヘンシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各チャンネルの中に３つ説明項目がある上から順に１，２，３とする</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consuls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_meals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_excretions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_sleeps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>games</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>divで囲んだ要素を格納する。</t>
+    <rPh sb="4" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグの中にnameかidで文字列型で1を入力しておく</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジレツガタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグの中にnameかidで文字列型で2を入力しておく</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジレツガタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグの中にnameかidで文字列型で3を入力しておく</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジレツガタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグの中にnameかidで文字列型で4を入力しておく</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジレツガタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢のnameかidの文字列と比較させる</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1202,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1225,13 +1317,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1287,7 +1379,9 @@
       <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1298,9 +1392,11 @@
         <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,12 +1404,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,12 +1419,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1334,12 +1434,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1347,12 +1449,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,12 +1464,14 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1376,9 +1482,11 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1389,9 +1497,11 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1604,7 +1714,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1723,7 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -1623,13 +1734,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1637,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1663,7 +1774,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1703,7 +1814,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table game (</v>
+        <v>create table games (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1711,27 +1822,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int  primary key auto_increment,</v>
+        <v>id int  primary key,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1739,25 +1848,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L18" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>game_id int  primary key,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>quiz varchar (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1765,13 +1874,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1780,10 +1889,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>quiz varchar (100),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>choise_1 varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1791,13 +1902,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -1806,10 +1917,12 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>choise_1 varchar (100),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>choise_2 varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1817,13 +1930,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1832,10 +1945,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>choise_2 varchar (100),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>choise_3 varchar (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1843,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1858,10 +1973,12 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>choise_3 varchar (100),</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>choise_4 varchar (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1869,25 +1986,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>choise_4 varchar (100),</v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>correct varchar (1),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1910,33 +2029,15 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>correct boolean ,</v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(F17&lt;&gt;""," primary key","")&amp;IF(G17&lt;&gt;""," auto_increment","")&amp;IF(H17&lt;&gt;""," not null","")&amp;IF(I17&lt;&gt;""," default "&amp;I17,"")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">score int </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">score int </v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2102,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2127,13 +2228,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2141,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2218,24 +2319,24 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int  primary key auto_increment,</v>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2243,13 +2344,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2269,13 +2370,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3">
         <v>32</v>
@@ -2285,7 +2386,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2300,7 +2401,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -2311,7 +2412,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -2323,13 +2424,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2347,15 +2448,17 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2363,7 +2466,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">child_name varchar </v>
+        <v>child_name varchar (20)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2634,7 +2737,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2654,13 +2757,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2668,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2694,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2734,7 +2837,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table consul (</v>
+        <v>create table consuls (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2742,27 +2845,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>consul_id int  primary key auto_increment,</v>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2773,7 +2876,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -2784,7 +2887,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L15" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id int ,</v>
       </c>
     </row>
@@ -2793,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
@@ -2807,7 +2910,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2822,7 +2925,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -2846,7 +2949,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
@@ -2857,7 +2960,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2872,10 +2975,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -2895,13 +2998,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2909,6 +3012,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">post_time timestamp </v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -3103,7 +3210,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3121,13 +3228,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3135,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3149,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3161,7 +3268,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3201,7 +3308,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table record (</v>
+        <v>create table records (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3209,27 +3316,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>record_id int  primary key auto_increment,</v>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,20 +3347,22 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>user_id int  primary key,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3261,15 +3370,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3277,7 +3388,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>child_name varchar ,</v>
+        <v>photo varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3285,16 +3396,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3303,7 +3414,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>photo varchar (50),</v>
+        <v>date datetime (8),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3311,16 +3422,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3329,7 +3440,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>date datetime (8),</v>
+        <v>temperature varchar (4),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3337,16 +3448,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3355,24 +3466,12 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>temperature varchar (4),</v>
+        <v>comment varchar (100)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3381,7 +3480,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>comment varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3577,7 +3676,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3596,13 +3695,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3610,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3624,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3636,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3676,7 +3775,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table record_time (</v>
+        <v>create table record_times (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3684,27 +3783,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>record_id int  primary key auto_increment,</v>
+        <v>id int  primary key,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3715,10 +3812,10 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3739,10 +3836,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3763,10 +3860,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4014,7 +4111,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4033,13 +4130,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4047,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4061,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4073,7 +4170,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4113,7 +4210,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table record_meal (</v>
+        <v>create table record_meals (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4124,10 +4221,10 @@
         <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4148,7 +4245,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4172,7 +4269,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -4196,10 +4293,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
@@ -4222,10 +4319,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -4245,27 +4342,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>recod_id int  primary key auto_increment</v>
+        <v>record_id int  primary key</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4475,455 +4570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table book (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>book_id int  primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>book_channel_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>item varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>explanation varchar (1000)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD5820B-6236-43AE-9D85-2F9B4B46D2BD}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4942,13 +4593,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4956,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4970,7 +4621,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4982,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5022,7 +4673,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table record_sleep (</v>
+        <v>create table record_sleeps (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5030,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -5057,10 +4708,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -5080,27 +4731,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>recod_id int  primary key auto_increment</v>
+        <v>record_id int  primary key</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5335,12 +4984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E20F-4402-4190-8F4A-82575898B822}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5359,13 +5008,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5373,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5387,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5399,7 +5048,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5439,7 +5088,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table record_excretion (</v>
+        <v>create table record_excretions (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5450,10 +5099,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -5474,10 +5123,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -5500,7 +5149,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -5524,7 +5173,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -5545,27 +5194,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>recod_id int  primary key auto_increment</v>
+        <v>record_id int  primary key</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5782,4 +5429,450 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table books (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>book_channel_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>item_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>explanation varchar (1000)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C744317-D77E-4E11-AF22-C713F0E1BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FB814-0AAA-4EF2-B0F0-90B003CDFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="137">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1294,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1344,13 +1344,17 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1713,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1767,7 +1771,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1779,7 +1785,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1839,7 +1847,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L16" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int  primary key,</v>
       </c>
     </row>
@@ -1865,7 +1873,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>quiz varchar (100),</v>
       </c>
     </row>
@@ -1893,7 +1901,7 @@
         <v>131</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>choise_1 varchar (100),</v>
       </c>
     </row>
@@ -1921,7 +1929,7 @@
         <v>132</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>choise_2 varchar (100),</v>
       </c>
     </row>
@@ -1949,7 +1957,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>choise_3 varchar (100),</v>
       </c>
     </row>
@@ -1977,7 +1985,7 @@
         <v>134</v>
       </c>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>choise_4 varchar (100),</v>
       </c>
     </row>
@@ -2005,7 +2013,7 @@
         <v>135</v>
       </c>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>correct varchar (1),</v>
       </c>
     </row>
@@ -2204,7 +2212,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2269,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -2273,7 +2283,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2737,7 +2749,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2802,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -2802,7 +2816,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3210,7 +3226,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3261,7 +3277,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3273,7 +3291,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3676,7 +3696,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3748,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3740,7 +3762,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4111,7 +4135,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4163,7 +4187,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -4175,7 +4201,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4574,7 +4602,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4626,7 +4654,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -4638,7 +4668,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4989,7 +5021,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5041,7 +5073,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -5053,7 +5087,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -5436,7 +5472,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5489,7 +5525,9 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -5501,7 +5539,9 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FB814-0AAA-4EF2-B0F0-90B003CDFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D71C7-8881-4239-9586-F818A0EE2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="19068" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1717,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -2211,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3225,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D269CAD1-0D43-45C2-94C4-381BF2E94537}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3696,7 +3696,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4134,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCABE-D001-4FAA-A701-9A0A473DE419}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4202,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4246,23 +4246,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>meal_time timestamp ,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>record_id int  primary key</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4270,13 +4272,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4285,8 +4287,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>milk boolean ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>meal_time timestamp  primary key,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4294,10 +4296,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -4309,8 +4311,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>baby food boolean ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>milk boolean ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4318,25 +4320,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>milk_quantity varchar (6),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>baby food boolean ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4344,16 +4344,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4361,8 +4361,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>meal_comment varchar (100),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>milk_quantity varchar (6),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4370,25 +4370,24 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>record_id int  primary key</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>meal_comment varchar (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4405,7 +4404,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L11:L16" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4602,7 +4601,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4669,7 +4668,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4713,23 +4712,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>sleep_time timestamp ,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G9&lt;&gt;""," auto_increment","")&amp;IF(H9&lt;&gt;""," not null","")&amp;IF(I9&lt;&gt;""," default "&amp;I9,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>record_id int  primary key auto_increment not null default デフォルト値,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4737,25 +4738,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>sleep_comment varchar (100),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>sleep_time timestamp ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4763,25 +4762,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>record_id int  primary key</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>sleep_comment varchar (100)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5020,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E20F-4402-4190-8F4A-82575898B822}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5088,7 +5087,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -5132,23 +5131,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>excretion_time timestamp ,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>record_id int  primary key</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5156,25 +5157,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L14" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>excretion_comment varchar (100),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>excretion_time timestamp  primary key,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5182,23 +5181,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>poop boolean ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>excretion_comment varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5206,10 +5207,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -5221,8 +5222,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>pee boolean ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>poop boolean ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5230,25 +5231,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>record_id int  primary key</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>pee boolean ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D71C7-8881-4239-9586-F818A0EE2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF53547B-1B99-423A-A52C-46DA61A87279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19068" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
-    <sheet name="consuls" sheetId="4" r:id="rId3"/>
-    <sheet name="records" sheetId="5" r:id="rId4"/>
-    <sheet name="record_times" sheetId="6" r:id="rId5"/>
-    <sheet name="record_meals" sheetId="7" r:id="rId6"/>
-    <sheet name="record_sleeps" sheetId="8" r:id="rId7"/>
-    <sheet name="record_excretions" sheetId="10" r:id="rId8"/>
+    <sheet name="records" sheetId="5" r:id="rId3"/>
+    <sheet name="record_times" sheetId="6" r:id="rId4"/>
+    <sheet name="record_meals" sheetId="7" r:id="rId5"/>
+    <sheet name="record_sleeps" sheetId="8" r:id="rId6"/>
+    <sheet name="record_excretions" sheetId="10" r:id="rId7"/>
+    <sheet name="consuls" sheetId="4" r:id="rId8"/>
     <sheet name="books" sheetId="11" r:id="rId9"/>
-    <sheet name="games" sheetId="9" r:id="rId10"/>
+    <sheet name="channels" sheetId="12" r:id="rId10"/>
+    <sheet name="games" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="141">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -196,13 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿ID</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,10 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>channnel_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>post_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -604,14 +594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブックチャンネルID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book_channel_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -877,6 +859,41 @@
   </si>
   <si>
     <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネル名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>channel_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>channel_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>channel_color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>channels</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1000,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1315,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1317,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1331,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1345,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1353,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1381,10 +1401,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1393,13 +1413,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1408,13 +1428,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1423,13 +1443,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1438,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1453,13 +1473,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1468,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1483,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1498,13 +1518,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1512,9 +1532,15 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1714,11 +1740,461 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table consuls (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>channel_name varchar ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">channel_color varchar </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1738,13 +2214,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1752,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1766,13 +2242,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1780,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1830,17 +2306,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1856,13 +2332,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1882,13 +2358,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1898,7 +2374,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -1910,13 +2386,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -1926,7 +2402,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -1938,13 +2414,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1954,7 +2430,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -1966,13 +2442,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1982,7 +2458,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -1994,13 +2470,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -2010,7 +2486,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2022,13 +2498,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2045,6 +2521,14 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2211,7 +2695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2236,13 +2720,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2250,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2270,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2278,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2328,20 +2812,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2356,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2382,13 +2866,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>32</v>
@@ -2398,7 +2882,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2410,13 +2894,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2424,7 +2908,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -2436,13 +2920,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2460,13 +2944,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2745,488 +3229,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0290-D955-4746-A1B4-D01473D71405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D269CAD1-0D43-45C2-94C4-381BF2E94537}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table consuls (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>channnel_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>post_id int ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>post_number int ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3">
-        <v>500</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>post_content varchar (500),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">post_time timestamp </v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D269CAD1-0D43-45C2-94C4-381BF2E94537}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3244,13 +3251,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3258,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3272,13 +3279,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3286,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3336,20 +3343,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3364,17 +3371,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3390,13 +3397,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -3416,13 +3423,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
@@ -3442,13 +3449,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
@@ -3468,13 +3475,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -3493,6 +3500,10 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3691,7 +3702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A907402-FA5B-4D47-8138-CFD804789B91}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -3715,13 +3726,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3729,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3743,13 +3754,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3757,7 +3768,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3807,17 +3818,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3833,13 +3844,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3857,13 +3868,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3881,13 +3892,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4130,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCABE-D001-4FAA-A701-9A0A473DE419}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -4154,13 +4165,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4168,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4182,13 +4193,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4196,7 +4207,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4246,17 +4257,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4272,13 +4283,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4296,13 +4307,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4320,13 +4331,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4344,13 +4355,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -4373,10 +4384,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -4404,7 +4415,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L11:L16" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4596,12 +4607,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD5820B-6236-43AE-9D85-2F9B4B46D2BD}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4620,13 +4631,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4634,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4648,13 +4659,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4662,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4712,17 +4723,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4738,13 +4749,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4765,10 +4776,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -4801,6 +4812,12 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4809,6 +4826,12 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5015,11 +5038,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E20F-4402-4190-8F4A-82575898B822}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -5039,13 +5062,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5053,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5067,13 +5090,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5081,7 +5104,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5131,17 +5154,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5157,13 +5180,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5184,10 +5207,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -5207,13 +5230,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5231,13 +5254,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3"/>
@@ -5276,6 +5299,484 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0290-D955-4746-A1B4-D01473D71405}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table consuls (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>channel_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>post_id int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>post_number int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>post_content varchar (500),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">post_time timestamp </v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -5470,7 +5971,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5490,13 +5991,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5504,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5518,13 +6019,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5532,13 +6033,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45454</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -5582,20 +6083,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5610,13 +6111,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5624,11 +6125,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>book_channel_id int ,</v>
+        <v>channel_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5636,13 +6137,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5650,7 +6151,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -5662,13 +6163,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>1000</v>
@@ -5678,7 +6179,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF53547B-1B99-423A-A52C-46DA61A87279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45334907-68E1-456F-AC6F-73EBC65782CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8532" yWindow="1116" windowWidth="11292" windowHeight="8880" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,9 +1000,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1915,9 @@
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1926,14 +1925,14 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">channel_color varchar </v>
+        <v>channel_color varchar (100)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2193,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E6" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45334907-68E1-456F-AC6F-73EBC65782CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6512D6F6-40AE-4E96-98BF-A16DC79BBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8532" yWindow="1116" windowWidth="11292" windowHeight="8880" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1740,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2814,7 +2814,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2831,7 +2831,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+        <v>user_id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3232,7 +3232,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3705,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A907402-FA5B-4D47-8138-CFD804789B91}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6512D6F6-40AE-4E96-98BF-A16DC79BBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEB56E3-E20F-45AD-8F23-EC17CFC07736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="145">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -894,6 +894,22 @@
   </si>
   <si>
     <t>channels</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pic.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fujimoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつき</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -983,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1016,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2692,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2814,7 +2833,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2831,7 +2850,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int  primary key auto_increment,</v>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3221,6 +3240,54 @@
         <v>19</v>
       </c>
     </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,9 +3296,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D269CAD1-0D43-45C2-94C4-381BF2E94537}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3695,6 +3762,57 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3705,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A907402-FA5B-4D47-8138-CFD804789B91}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6512D6F6-40AE-4E96-98BF-A16DC79BBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96F714E-29EA-4AB1-8F16-746E651BC056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12876" windowHeight="12336" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -566,22 +566,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>choise_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choise_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choise_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choise_4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>correct</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -894,6 +878,22 @@
   </si>
   <si>
     <t>channels</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1413,10 +1413,10 @@
         <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1428,10 +1428,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1440,13 +1440,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1455,13 +1455,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1470,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1485,13 +1485,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1503,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1518,10 +1518,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1530,13 +1530,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1740,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1775,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1856,7 +1856,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -1871,7 +1871,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1883,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -1907,10 +1907,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -2192,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2255,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2308,7 +2308,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2360,7 +2360,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -2373,11 +2373,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>choise_1 varchar (100),</v>
+        <v>choice_1 varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2388,7 +2388,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -2401,11 +2401,11 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>choise_2 varchar (100),</v>
+        <v>choice_2 varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2416,7 +2416,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -2429,11 +2429,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>choise_3 varchar (100),</v>
+        <v>choice_3 varchar (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -2457,11 +2457,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>choise_4 varchar (100),</v>
+        <v>choice_4 varchar (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>57</v>
@@ -2485,7 +2485,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2500,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2753,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2831,7 +2831,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int  primary key auto_increment,</v>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3278,13 +3278,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3292,7 +3292,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3345,7 +3345,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -3705,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A907402-FA5B-4D47-8138-CFD804789B91}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3731,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3739,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3753,13 +3753,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3820,7 +3820,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4178,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4192,13 +4192,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4644,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4658,13 +4658,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5089,13 +5089,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5526,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5546,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5554,7 +5554,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5607,7 +5607,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -5659,7 +5659,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -5670,7 +5670,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -5682,7 +5682,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>65</v>
@@ -5720,7 +5720,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -5758,10 +5758,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>78</v>
@@ -5996,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6004,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6024,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6032,7 +6032,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6082,10 +6082,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -6113,7 +6113,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -6124,7 +6124,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6136,10 +6136,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -6150,7 +6150,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -6162,10 +6162,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -6178,7 +6178,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046CBC9B-B0DA-458A-A775-E76000586C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A88EC8-DCEB-4E02-B5EF-0B241704EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="12876" windowHeight="12336" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="1812" windowWidth="13608" windowHeight="8916" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="145">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -894,6 +894,31 @@
   </si>
   <si>
     <t>choice_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_icon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1741,7 +1766,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2192,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -5969,8 +5994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6162,37 +6187,43 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="3">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>explanation varchar (1000)</v>
+        <v>item_name varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -6203,15 +6234,25 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1000</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046CBC9B-B0DA-458A-A775-E76000586C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB0A88B-B275-430C-BD6E-2E387DC949FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="12876" windowHeight="12336" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="record_sleeps" sheetId="8" r:id="rId6"/>
     <sheet name="record_excretions" sheetId="10" r:id="rId7"/>
     <sheet name="consuls" sheetId="4" r:id="rId8"/>
-    <sheet name="books" sheetId="11" r:id="rId9"/>
-    <sheet name="channels" sheetId="12" r:id="rId10"/>
+    <sheet name="channels" sheetId="12" r:id="rId9"/>
+    <sheet name="books" sheetId="11" r:id="rId10"/>
     <sheet name="games" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="149">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -894,6 +894,38 @@
   </si>
   <si>
     <t>choice_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dojo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>narita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testtest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testtesttest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -983,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1032,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,20 +1772,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -1789,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1803,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1845,7 +1880,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table consuls (</v>
+        <v>create table books (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>113</v>
@@ -1870,9 +1905,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int  primary key auto_increment,</v>
@@ -1883,23 +1916,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>channel_name varchar ,</v>
+        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>channel_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1907,43 +1942,53 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>channel_color varchar (100)</v>
+        <v>item_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1000</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>explanation varchar (1000)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1959,10 +2004,6 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1977,10 +2018,6 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1995,10 +2032,6 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2192,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -5489,10 +5522,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0290-D955-4746-A1B4-D01473D71405}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5959,6 +5992,106 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40">
+        <v>14.49</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.64861111111111114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5966,20 +6099,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -6018,7 +6151,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6032,7 +6165,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6074,7 +6207,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table books (</v>
+        <v>create table consuls (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6082,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>113</v>
@@ -6099,7 +6232,9 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int  primary key auto_increment,</v>
@@ -6110,25 +6245,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>channel_id int ,</v>
+        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>channel_name varchar ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6136,53 +6269,43 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>item_id int ,</v>
+        <v>channel_color varchar (100)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>explanation varchar (1000)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6198,6 +6321,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -6212,6 +6339,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -6226,6 +6357,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB0A88B-B275-430C-BD6E-2E387DC949FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29637D92-EC5D-451E-95AA-BB28242678CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6384" yWindow="2652" windowWidth="14748" windowHeight="10944" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -926,6 +926,28 @@
   </si>
   <si>
     <t>返信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_icon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1775,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1968,37 +1990,43 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="3">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>explanation varchar (1000)</v>
+        <v>item_name varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2009,15 +2037,25 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1000</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -5524,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0290-D955-4746-A1B4-D01473D71405}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29637D92-EC5D-451E-95AA-BB28242678CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A46474F-0BAA-48EC-9716-EC127B44046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6384" yWindow="2652" windowWidth="14748" windowHeight="10944" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="11604" windowHeight="11052" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1797,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6140,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6265,9 +6265,7 @@
       <c r="F10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -6275,7 +6273,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+        <v>id int  primary key,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A46474F-0BAA-48EC-9716-EC127B44046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D91253-CDD0-4F26-871E-84DF97233C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11604" windowHeight="11052" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="158">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -454,10 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記録書ID</t>
     <rPh sb="0" eb="3">
       <t>キロクショ</t>
@@ -668,10 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1が衣、２が食、３が住</t>
     <rPh sb="2" eb="3">
       <t>イ</t>
@@ -948,6 +940,43 @@
   </si>
   <si>
     <t>item_icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談内容</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consul_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consul_time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1397,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1419,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,7 +1487,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1470,10 +1499,10 @@
         <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1485,10 +1514,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1497,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1512,13 +1541,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1527,13 +1556,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1542,13 +1571,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1560,10 +1589,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1575,10 +1604,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1587,13 +1616,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1824,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1832,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1852,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1860,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1910,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -1941,7 +1970,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1952,7 +1981,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1964,10 +1993,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -1978,7 +2007,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -1990,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -2016,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -2038,10 +2067,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -2054,7 +2083,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2290,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2298,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2318,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2326,7 +2355,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2376,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2405,7 +2434,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -2431,7 +2460,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -2444,7 +2473,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2459,7 +2488,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -2472,7 +2501,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -2487,7 +2516,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -2500,7 +2529,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2515,7 +2544,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -2528,7 +2557,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2572,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>57</v>
@@ -2556,7 +2585,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2571,7 +2600,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
@@ -2796,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2804,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2824,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2885,7 +2914,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2990,10 +3019,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -3014,10 +3043,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -3327,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3335,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3349,13 +3378,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3363,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3413,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -3470,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -3496,10 +3525,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
@@ -3522,7 +3551,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -3548,7 +3577,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -3802,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3810,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3824,13 +3853,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3838,7 +3867,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3888,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -3917,10 +3946,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3941,10 +3970,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3965,10 +3994,10 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4241,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4249,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4263,13 +4292,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4277,7 +4306,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4327,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -4356,10 +4385,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4380,7 +4409,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -4404,7 +4433,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -4428,7 +4457,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -4454,7 +4483,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -4707,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4715,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4729,13 +4758,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4743,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4793,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -4819,13 +4848,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4846,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -5138,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5146,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5160,13 +5189,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5174,7 +5203,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5224,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -5253,10 +5282,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5277,7 +5306,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -5303,7 +5332,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -5327,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -5562,14 +5591,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0290-D955-4746-A1B4-D01473D71405}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" customWidth="1"/>
@@ -5589,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5597,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5617,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5625,7 +5654,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5678,7 +5707,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -5730,7 +5759,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -5741,10 +5770,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C23&lt;&gt;"",",","")</f>
         <v>channel_id int ,</v>
       </c>
     </row>
@@ -5753,22 +5782,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>500</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v>post_id int ,</v>
       </c>
     </row>
@@ -5777,13 +5808,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5791,10 +5822,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v>post_number int ,</v>
       </c>
     </row>
@@ -5802,50 +5833,36 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3">
-        <v>500</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>post_content varchar (500),</v>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v>comment_content varchar (500),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">post_time timestamp </v>
+      <c r="L16" t="e">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -5936,12 +5953,22 @@
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -5950,9 +5977,15 @@
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5964,10 +5997,18 @@
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3">
+        <v>500</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5978,9 +6019,15 @@
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6040,13 +6087,13 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
         <v>144</v>
-      </c>
-      <c r="E35" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -6065,7 +6112,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -6096,18 +6143,18 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
         <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>14.49</v>
@@ -6121,13 +6168,13 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6140,7 +6187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6167,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6175,7 +6222,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6195,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6203,7 +6250,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6256,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -6269,7 +6316,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6281,10 +6328,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -6305,10 +6352,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>

--- a/doc/02_DB定義書_ひろし.xlsx
+++ b/doc/02_DB定義書_ひろし.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D91253-CDD0-4F26-871E-84DF97233C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDC14F-8D90-4D47-8DA6-188B0F958063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="records" sheetId="5" r:id="rId3"/>
-    <sheet name="record_times" sheetId="6" r:id="rId4"/>
-    <sheet name="record_meals" sheetId="7" r:id="rId5"/>
-    <sheet name="record_sleeps" sheetId="8" r:id="rId6"/>
-    <sheet name="record_excretions" sheetId="10" r:id="rId7"/>
+    <sheet name="record_meals" sheetId="7" r:id="rId4"/>
+    <sheet name="record_sleeps" sheetId="8" r:id="rId5"/>
+    <sheet name="record_excretions" sheetId="10" r:id="rId6"/>
+    <sheet name="record_commnents" sheetId="14" r:id="rId7"/>
     <sheet name="consuls" sheetId="4" r:id="rId8"/>
-    <sheet name="channels" sheetId="12" r:id="rId9"/>
-    <sheet name="books" sheetId="11" r:id="rId10"/>
-    <sheet name="games" sheetId="9" r:id="rId11"/>
+    <sheet name="comments" sheetId="13" r:id="rId9"/>
+    <sheet name="games" sheetId="9" r:id="rId10"/>
+    <sheet name="scores" sheetId="15" r:id="rId11"/>
+    <sheet name="photos" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -190,29 +191,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿内容</t>
-    <rPh sb="0" eb="4">
-      <t>トウコウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿NO</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -227,13 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>写真</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>体温</t>
     <rPh sb="0" eb="2">
       <t>タイオン</t>
@@ -290,13 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自由欄</t>
-    <rPh sb="0" eb="3">
-      <t>ジユウラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -304,13 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boolean</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -344,16 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お昼寝時間</t>
-    <rPh sb="1" eb="3">
-      <t>ヒルネ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミルク量</t>
     <rPh sb="3" eb="4">
       <t>リョウ</t>
@@ -414,27 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（ハッシュ化で格納）</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームの合計得点</t>
-    <rPh sb="4" eb="8">
-      <t>ゴウケイトクテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相談ID</t>
     <rPh sb="0" eb="2">
       <t>ソウダン</t>
@@ -461,10 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>record_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>child_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,25 +493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブックID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひろしninaru</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遠藤</t>
     <rPh sb="0" eb="2">
       <t>エンドウ</t>
@@ -596,16 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>記録書（時間）</t>
-    <rPh sb="0" eb="3">
-      <t>キロクショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記録書（食事）</t>
     <rPh sb="0" eb="3">
       <t>キロクショ</t>
@@ -687,47 +581,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各チャンネルの中に３つ説明項目がある上から順に１，２，３とする</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>books</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>consuls</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,10 +593,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>record_times</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>record_meals</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -753,19 +606,6 @@
   </si>
   <si>
     <t>games</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>divで囲んだ要素を格納する。</t>
-    <rPh sb="4" eb="5">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクノウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -838,41 +678,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャンネル名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>channel_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>channel_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>channel_color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャンネル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>channels</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>choice_1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,60 +695,6 @@
   </si>
   <si>
     <t>choice_4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dojo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>narita</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testtest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>endo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testtesttest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返信</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目アイコン</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_icon</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -977,6 +732,211 @@
   </si>
   <si>
     <t>consul_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談コメントデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤本</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時間</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meal_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>睡眠ID</t>
+    <rPh sb="0" eb="2">
+      <t>スイミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時間</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sleep_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排泄ID</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excretion_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント欄</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IKUME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録書（コメント）</t>
+    <rPh sb="0" eb="3">
+      <t>キロクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_comments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談コメント</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録書（写真）</t>
+    <rPh sb="0" eb="3">
+      <t>キロクショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像1</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像2</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像3</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像4</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像5</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imgpath1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imgpath2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imgpath3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imgpath4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imgpath5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1066,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1046,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1420,13 +1383,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1448,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,10 +1447,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1496,13 +1459,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1511,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1526,13 +1489,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1541,13 +1504,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1556,13 +1519,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1571,13 +1534,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1586,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1601,13 +1564,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1616,13 +1579,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1630,9 +1593,15 @@
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1823,477 +1792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA978-E558-44D4-92D3-F0327A017189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table books (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>channel_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>item_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>item_name varchar (50),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772A9931-ECFB-4E3F-A0CC-5CBD1F9D18E0}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2313,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2327,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2341,13 +1844,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2355,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2405,17 +1908,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2431,13 +1934,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2457,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2473,7 +1976,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2485,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2501,7 +2004,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -2513,13 +2016,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -2529,7 +2032,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2541,13 +2044,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -2557,7 +2060,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -2569,13 +2072,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -2585,7 +2088,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2597,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2771,6 +2274,873 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C839DBD4-EA6C-40CB-9BE8-2E21C43420F5}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17C0A64-EF70-407C-8B3B-211262BF06AC}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2795,7 +3165,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2819,13 +3189,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2833,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2853,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2861,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2911,20 +3281,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2939,13 +3309,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2965,13 +3335,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <v>32</v>
@@ -2980,12 +3350,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>password varchar (32),</v>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2993,25 +3361,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>sum int ,</v>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3019,22 +3385,24 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>child_birthday varchar ,</v>
       </c>
     </row>
@@ -3042,25 +3410,17 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>child_name varchar (20)</v>
       </c>
     </row>
@@ -3078,7 +3438,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L15:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3332,7 +3692,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3350,13 +3710,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3364,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3378,13 +3738,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3392,7 +3752,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3442,20 +3802,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3470,25 +3830,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id int  primary key,</v>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3496,25 +3856,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>photo varchar (50),</v>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3522,16 +3882,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3539,7 +3899,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>date datetime (8),</v>
       </c>
     </row>
@@ -3547,52 +3907,36 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>temperature varchar (4),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>temperature varchar (4)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>comment varchar (100)</v>
+        <f t="shared" ref="L11:L16" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3802,450 +4146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A907402-FA5B-4D47-8138-CFD804789B91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCABE-D001-4FAA-A701-9A0A473DE419}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table record_times (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>meal_time timestamp ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>excretion_time timestamp ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">sleep_time timestamp </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCABE-D001-4FAA-A701-9A0A473DE419}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4264,13 +4169,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4278,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4292,13 +4197,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4306,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4356,25 +4261,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>record_id int  primary key</v>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4382,13 +4289,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4397,8 +4304,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>meal_time timestamp  primary key,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>meal_time time  primary key auto_increment,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4406,13 +4313,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4421,7 +4328,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>milk boolean ,</v>
       </c>
     </row>
@@ -4430,13 +4337,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4445,7 +4352,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>baby food boolean ,</v>
       </c>
     </row>
@@ -4454,13 +4361,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -4471,7 +4378,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>milk_quantity varchar (6),</v>
       </c>
     </row>
@@ -4480,13 +4387,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -4496,7 +4403,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C10&lt;&gt;"",",","")</f>
         <v>meal_comment varchar (100),</v>
       </c>
     </row>
@@ -4504,27 +4411,41 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4706,12 +4627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD5820B-6236-43AE-9D85-2F9B4B46D2BD}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4730,13 +4651,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4744,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4758,13 +4679,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4772,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4822,25 +4743,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G9&lt;&gt;""," auto_increment","")&amp;IF(H9&lt;&gt;""," not null","")&amp;IF(I9&lt;&gt;""," default "&amp;I9,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>record_id int  primary key auto_increment not null default デフォルト値,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G9&lt;&gt;""," auto_increment","")&amp;IF(H9&lt;&gt;""," not null","")&amp;IF(I9&lt;&gt;""," default "&amp;I9,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment not null default デフォルト値,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4848,13 +4771,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4863,8 +4786,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>sleep_time timestamp ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>sleep_time time  auto_increment,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4872,35 +4795,41 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>sleep_comment varchar (100)</v>
+      <c r="L12" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4911,9 +4840,15 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5137,12 +5072,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E20F-4402-4190-8F4A-82575898B822}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5161,13 +5096,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5175,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5189,13 +5124,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5203,7 +5138,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5253,25 +5188,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>record_id int  primary key</v>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5279,23 +5216,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>22</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>excretion_time timestamp  primary key,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>excretion_time time  primary key auto_increment,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5303,24 +5239,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>excretion_comment varchar (100),</v>
       </c>
     </row>
@@ -5329,13 +5263,458 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>poop boolean ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>pee boolean ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6DE2E0-C58E-49BD-80AE-F817FFBD57E3}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5343,35 +5722,21 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>poop boolean ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>pee boolean ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5385,7 +5750,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5589,10 +5954,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0290-D955-4746-A1B4-D01473D71405}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5612,13 +5977,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5626,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5640,13 +6005,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5654,7 +6019,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5704,20 +6069,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5732,13 +6097,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5747,7 +6112,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id int ,</v>
       </c>
     </row>
@@ -5756,13 +6121,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5770,11 +6135,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v>channel_id int ,</v>
+        <v xml:space="preserve">channel_id int </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5782,13 +6147,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
@@ -5800,7 +6165,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>post_id int ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5808,13 +6173,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5822,11 +6187,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="L14" t="str">
         <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v>post_number int ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5844,7 +6209,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v>comment_content varchar (500),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5953,22 +6318,12 @@
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -5977,15 +6332,9 @@
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5997,18 +6346,10 @@
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="3">
-        <v>500</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -6019,15 +6360,9 @@
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6078,104 +6413,26 @@
       <c r="J29" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" t="s">
-        <v>144</v>
-      </c>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40">
-        <v>14.49</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0.64861111111111114</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="E40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6184,82 +6441,77 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660D0EA-5409-4923-BBBE-AD5F24BDFB1B}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3931AEF-2DFD-4E1D-B8E6-601267278AF5}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6290,51 +6542,43 @@
       <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table consuls (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int  primary key,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6342,74 +6586,70 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L16" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>channel_name varchar ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>channel_color varchar (100)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6422,12 +6662,8 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6440,10 +6676,6 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
